--- a/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\codigoqr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F078348F-926C-4C30-9114-6AFD3E6F6FEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DB3F90-56F6-46BC-A04E-F137AAF266B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -67,9 +67,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>1010111</t>
-  </si>
-  <si>
     <t>4321</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>406-740100-05</t>
   </si>
   <si>
-    <t>userqa10</t>
-  </si>
-  <si>
     <t>monto</t>
   </si>
   <si>
@@ -149,18 +143,37 @@
   </si>
   <si>
     <t>406-785280-05</t>
+  </si>
+  <si>
+    <t>userrobot2</t>
+  </si>
+  <si>
+    <t>22483228</t>
+  </si>
+  <si>
+    <t>406-132280-02</t>
+  </si>
+  <si>
+    <t>150000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,21 +247,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -556,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -617,252 +632,252 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
+      <c r="B2" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
+      <c r="B3" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="O3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="11">
-        <v>120000</v>
+        <v>39</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="O4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:19">

--- a/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\codigoqr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS NUEVA APP\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\codigoqr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F85569A-7A9E-41B5-9ADD-EB1989A7DDA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -133,22 +132,22 @@
     <t>4</t>
   </si>
   <si>
-    <t>userrobot2</t>
-  </si>
-  <si>
-    <t>22483228</t>
-  </si>
-  <si>
     <t>150000</t>
   </si>
   <si>
-    <t>406-732280-07</t>
+    <t>43024987</t>
+  </si>
+  <si>
+    <t>automata87</t>
+  </si>
+  <si>
+    <t>406-749870-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -257,8 +256,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -564,11 +563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -582,6 +581,9 @@
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="13" width="16.85546875" customWidth="1"/>
     <col min="14" max="14" width="27.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -647,14 +649,14 @@
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>23</v>
@@ -703,14 +705,14 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>23</v>
@@ -751,8 +753,8 @@
       <c r="Q3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>39</v>
+      <c r="R3" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>32</v>
@@ -762,14 +764,14 @@
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
@@ -821,14 +823,14 @@
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
@@ -869,22 +871,23 @@
       <c r="Q5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="R5" s="11"/>
       <c r="S5" s="11" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="Q8" s="14"/>
     </row>
     <row r="13" spans="1:19">
       <c r="M13" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{9C71363A-8202-4229-9AF8-9716E8F6F072}"/>
-    <hyperlink ref="N4" r:id="rId3" xr:uid="{F1D4484C-2F8E-4B06-9BBC-89EA7BAFE810}"/>
-    <hyperlink ref="N5" r:id="rId4" xr:uid="{8888C909-36F0-401E-B774-27EDCD4F7B7D}"/>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="N4" r:id="rId3"/>
+    <hyperlink ref="N5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS NUEVA APP\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\codigoqr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\codigoqr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17B28FF-29BE-4BF4-A356-AB3A2F3D75C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -138,22 +139,35 @@
     <t>43024987</t>
   </si>
   <si>
-    <t>automata87</t>
-  </si>
-  <si>
-    <t>406-749870-13</t>
+    <t>autotest10</t>
+  </si>
+  <si>
+    <t>Corriente</t>
+  </si>
+  <si>
+    <t>406-125170-00</t>
+  </si>
+  <si>
+    <t>406-725170-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,23 +255,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -563,11 +578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -692,10 +707,10 @@
         <v>30</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="14" t="s">
         <v>40</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>32</v>
@@ -750,8 +765,8 @@
       <c r="P3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>40</v>
+      <c r="Q3" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>37</v>
@@ -807,10 +822,10 @@
         <v>31</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="14" t="s">
         <v>40</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="R4" s="11" t="s">
         <v>35</v>
@@ -868,8 +883,8 @@
       <c r="P5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="14" t="s">
-        <v>40</v>
+      <c r="Q5" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="R5" s="11"/>
       <c r="S5" s="11" t="s">
@@ -884,10 +899,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS NUEVA APP\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\codigoqr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Daniel Torres Devco\todo1\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\codigoqr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C74CC05-84D6-4914-8538-04592E45ECE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -90,9 +91,6 @@
     <t>jalzate@todo1.net</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
     <t>Acierto</t>
   </si>
   <si>
@@ -135,25 +133,41 @@
     <t>150000</t>
   </si>
   <si>
-    <t>43024987</t>
-  </si>
-  <si>
-    <t>automata87</t>
-  </si>
-  <si>
-    <t>406-749870-13</t>
+    <t>406-139440-02</t>
+  </si>
+  <si>
+    <t>406-739440-04</t>
+  </si>
+  <si>
+    <t>406-739440-03</t>
+  </si>
+  <si>
+    <t>userrobot9</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>22493944</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,24 +255,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -563,11 +578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -630,42 +645,42 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>38</v>
+      <c r="B2" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -689,39 +704,39 @@
         <v>22</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>38</v>
+      <c r="B3" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -745,42 +760,42 @@
         <v>22</v>
       </c>
       <c r="O3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -804,42 +819,42 @@
         <v>22</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -863,31 +878,31 @@
         <v>22</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="11"/>
       <c r="S5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="13" spans="1:19">
       <c r="M13" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS NUEVA APP\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\codigoqr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView windowWidth="20130" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -63,12 +58,39 @@
     <t>correoUsuario</t>
   </si>
   <si>
+    <t>nombrePersonalizado</t>
+  </si>
+  <si>
+    <t>tipoCuenta</t>
+  </si>
+  <si>
+    <t>numeroCuenta</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>43024987</t>
+  </si>
+  <si>
+    <t>testing10</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
     <t>4321</t>
   </si>
   <si>
+    <t>Acierto</t>
+  </si>
+  <si>
     <t>000</t>
   </si>
   <si>
@@ -90,84 +112,52 @@
     <t>jalzate@todo1.net</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Acierto</t>
-  </si>
-  <si>
-    <t>nombrePersonalizado</t>
-  </si>
-  <si>
-    <t>tipoCuenta</t>
-  </si>
-  <si>
-    <t>numeroCuenta</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>monto</t>
-  </si>
-  <si>
     <t>sinValor</t>
   </si>
   <si>
+    <t>Ahorros</t>
+  </si>
+  <si>
+    <t>406-139740-01</t>
+  </si>
+  <si>
+    <t>qr automatizado</t>
+  </si>
+  <si>
     <t>conValor</t>
   </si>
   <si>
-    <t>qr automatizado</t>
+    <t>406-139740-02</t>
+  </si>
+  <si>
+    <t>150000</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Ahorros</t>
-  </si>
-  <si>
     <t>134000</t>
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>150000</t>
-  </si>
-  <si>
-    <t>43024987</t>
-  </si>
-  <si>
-    <t>automata87</t>
-  </si>
-  <si>
-    <t>406-749870-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,6 +168,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -185,8 +182,144 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +338,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -238,40 +557,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -558,338 +1160,344 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="13" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="18.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="11.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
+    <col min="7" max="8" width="15.4285714285714" customWidth="1"/>
+    <col min="9" max="10" width="23.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="20.7142857142857" customWidth="1"/>
+    <col min="12" max="13" width="16.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="27.8571428571429" customWidth="1"/>
+    <col min="17" max="17" width="16.8571428571429" customWidth="1"/>
+    <col min="18" max="18" width="7.71428571428571" customWidth="1"/>
+    <col min="19" max="19" width="15.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:19">
+      <c r="A2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="K2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="M2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:19">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="11" customFormat="1">
-      <c r="A2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="L3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="11" customFormat="1">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>32</v>
+      <c r="S3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="A5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="N5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="17:17">
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="10" spans="9:9">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="M13" s="5"/>
+    <row r="13" spans="13:13">
+      <c r="M13" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
+    <hyperlink ref="N2" r:id="rId1" display="jalzate@todo1.net"/>
+    <hyperlink ref="N3" r:id="rId1" display="jalzate@todo1.net"/>
+    <hyperlink ref="N4" r:id="rId1" display="jalzate@todo1.net"/>
+    <hyperlink ref="N5" r:id="rId1" display="jalzate@todo1.net"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7425"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>406-139740-02</t>
+  </si>
+  <si>
+    <t>userunico01</t>
+  </si>
+  <si>
+    <t>406-767340-26</t>
   </si>
   <si>
     <t>Orientacion</t>
@@ -187,22 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +209,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -240,23 +239,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,21 +300,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -301,12 +308,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -314,17 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,31 +351,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,145 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +555,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -567,40 +608,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +628,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -634,163 +651,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,13 +1126,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5"/>
   <cols>
     <col min="13" max="13" width="12.125"/>
     <col min="14" max="14" width="18.375" customWidth="1"/>
@@ -1392,6 +1398,57 @@
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6456734</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1234</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4321</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>369</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1420,16 +1477,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1437,50 +1494,50 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
@@ -104,10 +104,10 @@
     <t>406-139740-02</t>
   </si>
   <si>
-    <t>userunico01</t>
-  </si>
-  <si>
-    <t>406-767340-26</t>
+    <t>autotest13</t>
+  </si>
+  <si>
+    <t>406-764830-24</t>
   </si>
   <si>
     <t>Orientacion</t>
@@ -186,14 +186,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,98 +260,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -308,6 +268,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -316,21 +322,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,181 +351,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,16 +555,49 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,49 +637,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -654,149 +654,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -809,55 +809,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
-    <cellStyle name="Coma" xfId="6" builtinId="3"/>
-    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21"/>
-    <cellStyle name="Nota" xfId="11" builtinId="10"/>
-    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
-    <cellStyle name="Título" xfId="14" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
-    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
-    <cellStyle name="Total" xfId="22" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
-    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
-    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
-    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
-    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
-    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
-    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
-    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
-    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="Normal 2" xfId="48"/>
-    <cellStyle name="60% - Énfasis6" xfId="49" builtinId="52"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1128,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5"/>
@@ -1406,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>6456734</v>
+        <v>87576483</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>

--- a/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/codigoqr/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="3" r:id="rId1"/>
     <sheet name="Listas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -107,9 +117,6 @@
     <t>autotest13</t>
   </si>
   <si>
-    <t>406-764830-24</t>
-  </si>
-  <si>
     <t>Orientacion</t>
   </si>
   <si>
@@ -156,24 +163,28 @@
   </si>
   <si>
     <t>Consultas</t>
+  </si>
+  <si>
+    <t>406-764830-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,159 +195,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,188 +209,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -553,312 +233,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1120,27 +511,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="12.125"/>
-    <col min="14" max="14" width="18.375" customWidth="1"/>
-    <col min="15" max="15" width="17.75" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1244,7 +634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1297,7 +687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1350,7 +740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1401,7 +791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1445,7 +835,7 @@
         <v>27</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
@@ -1454,94 +844,91 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/codigoqr/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="3" r:id="rId1"/>
     <sheet name="Listas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -78,7 +68,7 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>testing10</t>
+    <t>autotest30</t>
   </si>
   <si>
     <t>Acierto</t>
@@ -96,10 +86,10 @@
     <t>sinValor</t>
   </si>
   <si>
-    <t>Corriente</t>
-  </si>
-  <si>
-    <t>406-139740-01</t>
+    <t>Ahorros</t>
+  </si>
+  <si>
+    <t>406-733020-16</t>
   </si>
   <si>
     <t>qr automatizado</t>
@@ -108,15 +98,15 @@
     <t>conValor</t>
   </si>
   <si>
-    <t>Ahorros</t>
-  </si>
-  <si>
-    <t>406-139740-02</t>
+    <t>406-733020-15</t>
   </si>
   <si>
     <t>autotest13</t>
   </si>
   <si>
+    <t>406-764830-26</t>
+  </si>
+  <si>
     <t>Orientacion</t>
   </si>
   <si>
@@ -163,28 +153,24 @@
   </si>
   <si>
     <t>Consultas</t>
-  </si>
-  <si>
-    <t>406-764830-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,8 +181,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +346,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -233,23 +556,312 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -511,26 +1123,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5"/>
   <cols>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="17.6666666666667" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,12 +1195,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>43024987</v>
+        <v>333333302</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -634,12 +1246,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>43024987</v>
+        <v>333333302</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -675,10 +1287,10 @@
         <v>26</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="P3" s="3">
         <v>150000</v>
@@ -687,12 +1299,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>43024987</v>
+        <v>333333302</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -731,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P4" s="3">
         <v>134000</v>
@@ -740,12 +1352,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>43024987</v>
+        <v>333333302</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -781,17 +1393,17 @@
         <v>22</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -802,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
         <v>1234</v>
@@ -832,10 +1444,10 @@
         <v>22</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
@@ -844,26 +1456,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -877,7 +1491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -891,7 +1505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -905,7 +1519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -913,22 +1527,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/codigoqr/GenerarCodigoQr.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\codigoqr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="3" r:id="rId1"/>
     <sheet name="Listas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -158,14 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,158 +181,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,194 +201,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -556,252 +225,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -810,62 +237,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1123,26 +506,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="14" max="14" width="18.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="17.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1456,25 +839,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1519,7 +900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -1527,23 +908,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>